--- a/biology/Botanique/Caryocar_glabrum/Caryocar_glabrum.xlsx
+++ b/biology/Botanique/Caryocar_glabrum/Caryocar_glabrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caryocar glabrum est une espèce de plantes à fleurs de la famille des Caryocaracées. C'est un arbre néotropical. Comme toutes les espèces de Caryocar, il produit des noix comestibles.
-La sous-espèce C. glabrum subsp glabrum est connue en Guyane sous les noms de Chawari[4], Chawari montagne (Créole), Peke'a lã (Wayãpi), Sawa (Palikur), Piquiárana (Portugais)[5], Bois savonneux, Saouari, Saouari à feuilles lisses[6], Agougagui[7], Kassagnan (Paramaka)[8].
-On l'appelle aussi Jigua[6],[8], Jigua barbasco au Venezuela[9], Piquiá-rana da terra firme (Pará)[10], Pequi[6], Piquiá-rana[8],[11] au Brésil), Haw (Puinave), e-ko (Barasana), Kön (Cubeo) en Colombie, Aloekoemarirang, Sawarie, Sopohoedoe au Suriname, Almendra, Almendro au Pérou[8] ,[11].
+La sous-espèce C. glabrum subsp glabrum est connue en Guyane sous les noms de Chawari, Chawari montagne (Créole), Peke'a lã (Wayãpi), Sawa (Palikur), Piquiárana (Portugais), Bois savonneux, Saouari, Saouari à feuilles lisses, Agougagui, Kassagnan (Paramaka).
+On l'appelle aussi Jigua Jigua barbasco au Venezuela, Piquiá-rana da terra firme (Pará), Pequi, Piquiá-rana, au Brésil), Haw (Puinave), e-ko (Barasana), Kön (Cubeo) en Colombie, Aloekoemarirang, Sawarie, Sopohoedoe au Suriname, Almendra, Almendro au Pérou ,.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Caryocar glabrum est un grand à très grand arbre atteignant 15 à 30(50) m de haut, pour 1,30 m de diamètre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caryocar glabrum est un grand à très grand arbre atteignant 15 à 30(50) m de haut, pour 1,30 m de diamètre.
 Le tronc cylindrique est doté ou non de gros contreforts, peu élevés formés par le début des racines, épais, arrondis, généralement simples, rarement ramifiés et étalés.
 L'écorce externe est lisse chez les jeunes arbres, devenant rugueuse chez les arbres plus âgés, écailleuse à faiblement fissurée, grisâtre à brun foncé, lenticellée, les lenticelles en rangées verticales, l'écorce interne de couleur chair, avec des inclusions jaunes, très fibreuse, les fibres orientées dans des directions différentes.
 Les jeunes rameaux sont glabres ou légèrement pubérulents-glabrescents.
-Le bois parfait est de couleur brun clair, plus ou moins distinct de l'aubier, à grain plutôt grossier, avec des contre-fils fréquents, léger à dense (densité : 0,56 à 0,92), à 4 à 6 vaisseaux par mm2 disséminés, isolés ou accolés radialement par 2-3, larges de 210 à 260 µm, très fréquemment obstrués par des thylles à parois minces[7].
+Le bois parfait est de couleur brun clair, plus ou moins distinct de l'aubier, à grain plutôt grossier, avec des contre-fils fréquents, léger à dense (densité : 0,56 à 0,92), à 4 à 6 vaisseaux par mm2 disséminés, isolés ou accolés radialement par 2-3, larges de 210 à 260 µm, très fréquemment obstrués par des thylles à parois minces.
 Les feuilles sont opposées-décussées, composées-trifoliolées, à 2 stipules longues de 3 mm, précocement caduques..
 Les pétioles sont longs de (2)4-8(15) cm, cylindriques, glabres ou légèrement pubérulents-glabrescents.
 Les folioles sont courtement pétiolulées, avec le pétiolule terminal long de (2)5 à 10(13) mm et les pétiolules latéraux égaux ou légèrement plus courts que le terminal.
@@ -547,49 +561,50 @@
 Le mésocarpe est charnu, épais d'environ 5 mm, composé d'une pâte grasse blanc-jaunâtre, mesurant 3-4 x 4-5 cm, enveloppant les épines de l'endocarpe mais s'en détachant facilement.
 L'endocarpe forme un noyau sub-réniforme, mesurant 3-4 x 4-5 cm, ligneux, dur, de couleur brun-rougeâtre, épais d'environ 2 mm, hérissé de nombreuses épines robustes, fines, aiguës et longues de 5 à 15 mm et glabre à l'intérieur.
 Il contient une amande de forme subovoïde longue de 3 à 5 cm pour 2 à 3,5 cm de large.
-La germination est hypogée[8],[9],[13],[6],[4],[14].
-Taxons infrascpéfiques
-On reconnait 3 sous-espèces au sein de Caryocar glabrum[8] :
+La germination est hypogée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxons infrascpéfiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On reconnait 3 sous-espèces au sein de Caryocar glabrum :
 C. glabrum subsp glabrum - stipelles caduques, calice long de 8,0 à 12,0 mm et étamines longues de 5,0 à 6,0 cm.
 C. glabrum subsp. parviflorum - petits stipelles persistants, calice long d'environ 7,0 mm, étamines longues de 3,0 à 4,5 cm, aisselle des nervures primaires glabres, et rachis de l'inflorescence long de 2,0-3,0 cm.
 C. glabrum subsp. album - stipelles persistants, calice long d'environ 7,0 mm, étamines longues de 3,0 à 4,5 cm, aisselle des nervures primaires barbelées, et rachis de l'inflorescence long d'environ 7,0 cm.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Caryocar_glabrum</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Caryocar_glabrum</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Caryocar glabrum est l'espèce de Caryocar la plus répandue dans les Guyanes et la forêt amazonienne de terre ferme[11].
-Caryocar glabrum est présent au Venezuela (Delta Amacuro Amazonas, au Guyana, au Suriname, en Guyane, dans l'Équateur amazonien, au Pérou, au Brésil, et en Bolivie[9].
-C. glabrum subsp glabrum  est présent des Guyanes au nord de l'Amazonie (Colombie, Pérou, Venezuela, est du Pará au Brésil).
-C. glabrum subsp. parviflorumest présent au Brésil de Manaus au centre-sud de l'Amazonie.
-C. glabrum subsp. album est uniquement connu du type collecté au Guyana (Kamarang Station, bassin de la haute Mazaruni)[8].</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -611,21 +626,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caryocar glabrum pousse dans les forêts primaires humides du nord de l'Amérique du sud sur les sols bien drainants[6].
-Au Venezuela on rencontre Caryocar glabrum dans les forêts de basse altitude sempervirentes non inondées, autour de 50–200 m d'altitude[9].
-Dans le centre de la Guyane, Caryocar glabrum est assez commun, en forêt de terre ferme (non inondée), fleurit en août, novembre, décembre), et fructifie en février, mai, juin[4].
-C. glabrum subsp glabrum pousse dans les forêts sur les sols de terre ferme (non inondés), et a été récolté en fleur dans les Guyanes d'août à avril et en Amazonie de juin à novembre.
-C. glabrum subsp. parviflorum pousse dans les forêts sur les sols de terre ferme (non inondés), et a été récolté en fleurs octobre et novembre.
-C. glabrum subsp. album a été récolté en fleur en octobre[8].
-Caryocar glabrum peut-être multiplié par graines[6].
-L'influence de la litière d'une plantation de Caryocar glabrum sur les communautés microbiennes et de vers de terre a été étudiée[15].
-La relation entre la structure des feuilles de Caryocar glabrum, sa teneur en nutriments minéraux et la résistance à la sécheresse a été étudiée dans les forêts tropicales humides de la région du haut Rio Negro[16].
-</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Caryocar glabrum est l'espèce de Caryocar la plus répandue dans les Guyanes et la forêt amazonienne de terre ferme.
+Caryocar glabrum est présent au Venezuela (Delta Amacuro Amazonas, au Guyana, au Suriname, en Guyane, dans l'Équateur amazonien, au Pérou, au Brésil, et en Bolivie.
+C. glabrum subsp glabrum  est présent des Guyanes au nord de l'Amazonie (Colombie, Pérou, Venezuela, est du Pará au Brésil).
+C. glabrum subsp. parviflorumest présent au Brésil de Manaus au centre-sud de l'Amazonie.
+C. glabrum subsp. album est uniquement connu du type collecté au Guyana (Kamarang Station, bassin de la haute Mazaruni).</t>
         </is>
       </c>
     </row>
@@ -650,41 +662,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentation
-Les graines oléagineuses de C. glabrum subsp glabrum sont comestibles[9], et consommées par les indigènes dans toute son aire de répartition[8].
-Le mésocarpe peu abondant du fruit n'est pas utilisé dans le Pará, mais on y consomme parfois son amande savoureuse[10].
-Son goût rappelle celui de la noisette, peut être consommée crue[6].
-« SAOUARI arbor. Je n'ai vû que le fruit de cet arbre , qui eſt une maniere de coque oſſeuſe heriſſée de piquans , à peu près comme nos châtaignes , ayant la figure d'un Rein , renfermant en dedans une amande douceâtre , qui eſt bonne à manger. »
-— Pierre Barrère, 1741[17].
-Cependant, le potentiel économique des noix de Caryocar glabrum semble limité, en raison des épines de l'endocarpe, qui le rendent difficile à manipuler. Une sélection génétique seraient nécessaires pour augmenter la taille des noix et peut-être améliorer suffisamment leur saveur et surmonter l'inconvénient de l'endocarpe. Cette espèce serait plus prometteuse pour des fins sylvicoles que pour ses noix[18]
-Construction
-Dans l'État du Pará où il est commun, le bois brun jaune de Caryocar glabrum est de bonne qualité[18], mais considéré comme plus grossier et beaucoup moins estimé que celui du « vrai » piquiá (Caryocar villosum)[10],[19].
-« Saouari. Chawari. Chaouari. Caryocar glabrum Per. (Rizobolacées) (Saouari glabra. d'Aublet). - Arbre haut et gros. Bois blanc rosé, à fibres enchevêtrées, de longue conservation. Constructions navales. Menuiserie intérieure et extérieure. Charronnage. Pesanteur sp. : sec 0,820, vert 1,187. Force 211 kilogrammes.
-Le Saouari a un fruit butyreux, avec un noyau hérissé de piquants, comme le Pekea [Caryocar villosum], ce qui fait confondre souvent les deux arbres. Mais ses feuilles sont réunies par trois à l'extrémité d'un même pédoncule, tandis que celles du Pekea sont par cinq. »
-— Gabriel Devez, 1932[20].
-« Pers. Tome III, 16., Saouari ou chawari. Le bois, à densité de 0,08 et a fibres entrecroisées est excellent et utilisé pour les charpentes, le charronnage, la carrosserie, la menuiserie, les constructions navales ; l'amande est comestible et savoureuse (Devez 75[20] ; Mission for . 83[21] ; Arch. jard. Rio· IV, 132[10]). »
-— Albert Lemée, 1956[22].
-En Amazonie péruvienne, il est utilisé dans les constructions rurales, pour les poteaux de clôture, la construction de bateaux et les revêtements de sol. C. glabrum subsp glabrum est principalement utilisé pour la construction de bateaux au Brésil (comme dans toute l'Amazonie[8]), mais entre aussi parfois comme bois commercial[11].
-L'écorce est utilisée pour la construction dans toute l'Amazonie[23]
-La structure du bois de Caryocar glabrum a été étudiée[24].
-Poison de pêche
-la pulpe du mésocarpe des fruits de Caryocar glabrum est utilisé comme poison de pêche[9],[14] dans le nord-ouest de l'Amazonie (Colombie, Venezuela et Brésil) principalement chez quelques ethnies amazoniennes (Tukano et Maku) comme poison de pêche (comme Caryocar microcarpum[25]) : chez les Macus (pt), sur le Rio Uneuixi (sv)[8], les péricarpes de C. glabrum subsp glabrum sont mélangés dans un trou boueux dans le sol quelques jours auparavant puis jeté dans un petit ruisseau (la mousse abondante sur l'eau indiquant une teneur élevée en saponines)[11],[23]. Ailleurs, on emploie aussi le mésocarpe et l'endocarpe du fruit vert broyés et mélangés dans de l'eau[5].
-Pharmacopée
-Chez les Palikur, l'écorce de Caryocar glabrum est grillée avec des morceaux de carapace de tortue denticulée (Geochelone denticulata), pulvérisée, mélangée à du suif (chandelle molle), étalée au fond d'une calebasse, chauffée à feu doux et appliquée sur les tumeurs externes[5].
-Chimie
-L'extrait d'écorce de tige de Caryocar glabrum contient des glycosides phénolique présentant une activité inhibitrice de la tyrosinase fongique
-[26].
-On a isolés deux glucosides de dihydroisocoumarine dans l'écorce de tige de Caryocar glabrum[27].
-21 nouvelles saponines triterpénoïdes et 9 autres déjà connues ont été isolées dans les fruits de Caryocar glabrum[28].
-On a testé sur Caryocar glabrum différents protocoles d'extraction d'ADN génomique à partir de bois séché[29].
-L'activité antioxydante in vitro, et les effets d'extraits de Caryocar glabrum sur le profil des acides gras de souris a été étudiée[30].
-Les feuilles de Caryocar glabrum présentent une activité antioxydante élevée et contient de fortes teneurs en anthocyanes, flavonoides , catéchines et proanthocyanidines[31].
-La chimie de Caryocar glabrum a été analysée[32].
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caryocar glabrum pousse dans les forêts primaires humides du nord de l'Amérique du sud sur les sols bien drainants.
+Au Venezuela on rencontre Caryocar glabrum dans les forêts de basse altitude sempervirentes non inondées, autour de 50–200 m d'altitude.
+Dans le centre de la Guyane, Caryocar glabrum est assez commun, en forêt de terre ferme (non inondée), fleurit en août, novembre, décembre), et fructifie en février, mai, juin.
+C. glabrum subsp glabrum pousse dans les forêts sur les sols de terre ferme (non inondés), et a été récolté en fleur dans les Guyanes d'août à avril et en Amazonie de juin à novembre.
+C. glabrum subsp. parviflorum pousse dans les forêts sur les sols de terre ferme (non inondés), et a été récolté en fleurs octobre et novembre.
+C. glabrum subsp. album a été récolté en fleur en octobre.
+Caryocar glabrum peut-être multiplié par graines.
+L'influence de la litière d'une plantation de Caryocar glabrum sur les communautés microbiennes et de vers de terre a été étudiée.
+La relation entre la structure des feuilles de Caryocar glabrum, sa teneur en nutriments minéraux et la résistance à la sécheresse a été étudiée dans les forêts tropicales humides de la région du haut Rio Negro.
 </t>
         </is>
       </c>
@@ -710,14 +703,221 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines oléagineuses de C. glabrum subsp glabrum sont comestibles, et consommées par les indigènes dans toute son aire de répartition.
+Le mésocarpe peu abondant du fruit n'est pas utilisé dans le Pará, mais on y consomme parfois son amande savoureuse.
+Son goût rappelle celui de la noisette, peut être consommée crue.
+« SAOUARI arbor. Je n'ai vû que le fruit de cet arbre , qui eſt une maniere de coque oſſeuſe heriſſée de piquans , à peu près comme nos châtaignes , ayant la figure d'un Rein , renfermant en dedans une amande douceâtre , qui eſt bonne à manger. »
+— Pierre Barrère, 1741.
+Cependant, le potentiel économique des noix de Caryocar glabrum semble limité, en raison des épines de l'endocarpe, qui le rendent difficile à manipuler. Une sélection génétique seraient nécessaires pour augmenter la taille des noix et peut-être améliorer suffisamment leur saveur et surmonter l'inconvénient de l'endocarpe. Cette espèce serait plus prometteuse pour des fins sylvicoles que pour ses noix
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'État du Pará où il est commun, le bois brun jaune de Caryocar glabrum est de bonne qualité, mais considéré comme plus grossier et beaucoup moins estimé que celui du « vrai » piquiá (Caryocar villosum),.
+« Saouari. Chawari. Chaouari. Caryocar glabrum Per. (Rizobolacées) (Saouari glabra. d'Aublet). - Arbre haut et gros. Bois blanc rosé, à fibres enchevêtrées, de longue conservation. Constructions navales. Menuiserie intérieure et extérieure. Charronnage. Pesanteur sp. : sec 0,820, vert 1,187. Force 211 kilogrammes.
+Le Saouari a un fruit butyreux, avec un noyau hérissé de piquants, comme le Pekea [Caryocar villosum], ce qui fait confondre souvent les deux arbres. Mais ses feuilles sont réunies par trois à l'extrémité d'un même pédoncule, tandis que celles du Pekea sont par cinq. »
+— Gabriel Devez, 1932.
+« Pers. Tome III, 16., Saouari ou chawari. Le bois, à densité de 0,08 et a fibres entrecroisées est excellent et utilisé pour les charpentes, le charronnage, la carrosserie, la menuiserie, les constructions navales ; l'amande est comestible et savoureuse (Devez 75 ; Mission for . 83 ; Arch. jard. Rio· IV, 132). »
+— Albert Lemée, 1956.
+En Amazonie péruvienne, il est utilisé dans les constructions rurales, pour les poteaux de clôture, la construction de bateaux et les revêtements de sol. C. glabrum subsp glabrum est principalement utilisé pour la construction de bateaux au Brésil (comme dans toute l'Amazonie), mais entre aussi parfois comme bois commercial.
+L'écorce est utilisée pour la construction dans toute l'Amazonie
+La structure du bois de Caryocar glabrum a été étudiée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poison de pêche</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">la pulpe du mésocarpe des fruits de Caryocar glabrum est utilisé comme poison de pêche, dans le nord-ouest de l'Amazonie (Colombie, Venezuela et Brésil) principalement chez quelques ethnies amazoniennes (Tukano et Maku) comme poison de pêche (comme Caryocar microcarpum) : chez les Macus (pt), sur le Rio Uneuixi (sv), les péricarpes de C. glabrum subsp glabrum sont mélangés dans un trou boueux dans le sol quelques jours auparavant puis jeté dans un petit ruisseau (la mousse abondante sur l'eau indiquant une teneur élevée en saponines),. Ailleurs, on emploie aussi le mésocarpe et l'endocarpe du fruit vert broyés et mélangés dans de l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les Palikur, l'écorce de Caryocar glabrum est grillée avec des morceaux de carapace de tortue denticulée (Geochelone denticulata), pulvérisée, mélangée à du suif (chandelle molle), étalée au fond d'une calebasse, chauffée à feu doux et appliquée sur les tumeurs externes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrait d'écorce de tige de Caryocar glabrum contient des glycosides phénolique présentant une activité inhibitrice de la tyrosinase fongique
+.
+On a isolés deux glucosides de dihydroisocoumarine dans l'écorce de tige de Caryocar glabrum.
+21 nouvelles saponines triterpénoïdes et 9 autres déjà connues ont été isolées dans les fruits de Caryocar glabrum.
+On a testé sur Caryocar glabrum différents protocoles d'extraction d'ADN génomique à partir de bois séché.
+L'activité antioxydante in vitro, et les effets d'extraits de Caryocar glabrum sur le profil des acides gras de souris a été étudiée.
+Les feuilles de Caryocar glabrum présentent une activité antioxydante élevée et contient de fortes teneurs en anthocyanes, flavonoides , catéchines et proanthocyanidines.
+La chimie de Caryocar glabrum a été analysée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caryocar_glabrum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[33] : 
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « SAOUARI glabra (Tabula 240.)
-Saouari arbor. Bar. Franc. Æquinox. 101[17].
+Saouari arbor. Bar. Franc. Æquinox. 101.
 Arbor trunco ſexaginta aut odoginta-pedali, ad ſummitatem ramoſo ; ramis redis &amp; declinatis, hinc &amp; indè ſparſis; ramulis oppoſitis, folioſis &amp; fructiferis. Folia oppoſita, digitata, ternata ; foliolis ſubſeſſilibus, ovatis, ſubdentatis, in acumen longum deſinentibus, glabris, venoſis, tubentibus, ad apicem petioli longi adnexis. Gemmæ foliorum antè evolutionem, duabus stipulis longis, concavis, deciduis, involvuntur. Fructus racemoſi, axillares &amp; terminales. Pericarpium : drupa oviformis, cujus cortex aſper, rufeſcens, carnoſus, carne butiraceâ, ſubviridi, nucem ſetis rigidis tedam &amp; aſperatam, involvente ; teſta fragilis ; nucleus dulcis &amp; edulis. Cortex drupæ, dùm fenuit, dehiſcit in rimas undique ſparſas.
 Fructum ferebat Februario.
 Habitat in ſylvis Guianæ &amp; Caux propè praidium domini Boutin, quo in loco plurimas arbores cultas obſervavi.
